--- a/Excel/Assignment 1.xlsx
+++ b/Excel/Assignment 1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\OneDrive\Desktop\Data analyst\Assignment Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\OneDrive\Desktop\Data analyst\Assignment Data\Assignment\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE032A2F-4ACA-48F1-9A70-DFB1FD301543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5880" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="2" r:id="rId1"/>
     <sheet name="Arithmatic Functions" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -492,7 +492,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,6 +501,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,11 +815,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,20 +945,20 @@
         <v>21600</v>
       </c>
       <c r="L9" s="5">
-        <f>1000+0.05*K9</f>
-        <v>2080</v>
+        <f>($J9*5%)+1000</f>
+        <v>3400</v>
       </c>
       <c r="M9" s="5">
         <f>J9+K9+L9</f>
-        <v>71680</v>
+        <v>73000</v>
       </c>
       <c r="N9" s="5">
         <f>0.05*M9</f>
-        <v>3584</v>
+        <v>3650</v>
       </c>
       <c r="O9" s="5">
         <f>M9-N9</f>
-        <v>68096</v>
+        <v>69350</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -993,20 +994,20 @@
         <v>15750</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10:L46" si="1">1000+0.05*K10</f>
-        <v>1787.5</v>
+        <f t="shared" ref="L10:L46" si="1">($J10*5%)+1000</f>
+        <v>2750</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" ref="M10:M46" si="2">J10+K10+L10</f>
-        <v>52537.5</v>
+        <v>53500</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" ref="N10:N46" si="3">0.05*M10</f>
-        <v>2626.875</v>
+        <v>2675</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" ref="O10:O46" si="4">M10-N10</f>
-        <v>49910.625</v>
+        <v>50825</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
@@ -1043,19 +1044,19 @@
       </c>
       <c r="L11" s="5">
         <f t="shared" si="1"/>
-        <v>2507.5</v>
+        <v>4350</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="2"/>
-        <v>99657.5</v>
+        <v>101500</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="3"/>
-        <v>4982.875</v>
+        <v>5075</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="4"/>
-        <v>94674.625</v>
+        <v>96425</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -1092,19 +1093,19 @@
       </c>
       <c r="L12" s="5">
         <f t="shared" si="1"/>
-        <v>2957.5</v>
+        <v>5350</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="2"/>
-        <v>129107.5</v>
+        <v>131500</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="3"/>
-        <v>6455.375</v>
+        <v>6575</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="4"/>
-        <v>122652.125</v>
+        <v>124925</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -1141,19 +1142,19 @@
       </c>
       <c r="L13" s="5">
         <f t="shared" si="1"/>
-        <v>1495</v>
+        <v>2100</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="2"/>
-        <v>33395</v>
+        <v>34000</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="3"/>
-        <v>1669.75</v>
+        <v>1700</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="4"/>
-        <v>31725.25</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -1190,19 +1191,19 @@
       </c>
       <c r="L14" s="5">
         <f t="shared" si="1"/>
-        <v>3047.5</v>
+        <v>5550</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="2"/>
-        <v>134997.5</v>
+        <v>137500</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" si="3"/>
-        <v>6749.875</v>
+        <v>6875</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" si="4"/>
-        <v>128247.625</v>
+        <v>130625</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -1239,19 +1240,19 @@
       </c>
       <c r="L15" s="5">
         <f t="shared" si="1"/>
-        <v>2732.5</v>
+        <v>4850</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="2"/>
-        <v>114382.5</v>
+        <v>116500</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="3"/>
-        <v>5719.125</v>
+        <v>5825</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" si="4"/>
-        <v>108663.375</v>
+        <v>110675</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
@@ -1288,19 +1289,19 @@
       </c>
       <c r="L16" s="5">
         <f t="shared" si="1"/>
-        <v>2012.5</v>
+        <v>3250</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="2"/>
-        <v>67262.5</v>
+        <v>68500</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" si="3"/>
-        <v>3363.125</v>
+        <v>3425</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" si="4"/>
-        <v>63899.375</v>
+        <v>65075</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
@@ -1337,19 +1338,19 @@
       </c>
       <c r="L17" s="5">
         <f t="shared" si="1"/>
-        <v>3070</v>
+        <v>5600</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="2"/>
-        <v>136470</v>
+        <v>139000</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" si="3"/>
-        <v>6823.5</v>
+        <v>6950</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" si="4"/>
-        <v>129646.5</v>
+        <v>132050</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
@@ -1386,19 +1387,19 @@
       </c>
       <c r="L18" s="5">
         <f t="shared" si="1"/>
-        <v>2125</v>
+        <v>3500</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="2"/>
-        <v>74625</v>
+        <v>76000</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="3"/>
-        <v>3731.25</v>
+        <v>3800</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="4"/>
-        <v>70893.75</v>
+        <v>72200</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
@@ -1435,19 +1436,19 @@
       </c>
       <c r="L19" s="5">
         <f t="shared" si="1"/>
-        <v>1832.5</v>
+        <v>2850</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="2"/>
-        <v>55482.5</v>
+        <v>56500</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="3"/>
-        <v>2774.125</v>
+        <v>2825</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" si="4"/>
-        <v>52708.375</v>
+        <v>53675</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
@@ -1484,19 +1485,19 @@
       </c>
       <c r="L20" s="5">
         <f t="shared" si="1"/>
-        <v>1967.5</v>
+        <v>3150</v>
       </c>
       <c r="M20" s="5">
         <f t="shared" si="2"/>
-        <v>64317.5</v>
+        <v>65500</v>
       </c>
       <c r="N20" s="5">
         <f t="shared" si="3"/>
-        <v>3215.875</v>
+        <v>3275</v>
       </c>
       <c r="O20" s="5">
         <f t="shared" si="4"/>
-        <v>61101.625</v>
+        <v>62225</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
@@ -1533,19 +1534,19 @@
       </c>
       <c r="L21" s="5">
         <f t="shared" si="1"/>
-        <v>3025</v>
+        <v>5500</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="2"/>
-        <v>133525</v>
+        <v>136000</v>
       </c>
       <c r="N21" s="5">
         <f t="shared" si="3"/>
-        <v>6676.25</v>
+        <v>6800</v>
       </c>
       <c r="O21" s="5">
         <f t="shared" si="4"/>
-        <v>126848.75</v>
+        <v>129200</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
@@ -1582,19 +1583,19 @@
       </c>
       <c r="L22" s="5">
         <f t="shared" si="1"/>
-        <v>1765</v>
+        <v>2700</v>
       </c>
       <c r="M22" s="5">
         <f t="shared" si="2"/>
-        <v>51065</v>
+        <v>52000</v>
       </c>
       <c r="N22" s="5">
         <f t="shared" si="3"/>
-        <v>2553.25</v>
+        <v>2600</v>
       </c>
       <c r="O22" s="5">
         <f t="shared" si="4"/>
-        <v>48511.75</v>
+        <v>49400</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
@@ -1631,19 +1632,19 @@
       </c>
       <c r="L23" s="5">
         <f t="shared" si="1"/>
-        <v>2845</v>
+        <v>5100</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="2"/>
-        <v>121745</v>
+        <v>124000</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" si="3"/>
-        <v>6087.25</v>
+        <v>6200</v>
       </c>
       <c r="O23" s="5">
         <f t="shared" si="4"/>
-        <v>115657.75</v>
+        <v>117800</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
@@ -1680,19 +1681,19 @@
       </c>
       <c r="L24" s="5">
         <f t="shared" si="1"/>
-        <v>2507.5</v>
+        <v>4350</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="2"/>
-        <v>99657.5</v>
+        <v>101500</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="3"/>
-        <v>4982.875</v>
+        <v>5075</v>
       </c>
       <c r="O24" s="5">
         <f t="shared" si="4"/>
-        <v>94674.625</v>
+        <v>96425</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
@@ -1729,19 +1730,19 @@
       </c>
       <c r="L25" s="5">
         <f t="shared" si="1"/>
-        <v>2912.5</v>
+        <v>5250</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="2"/>
-        <v>126162.5</v>
+        <v>128500</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="3"/>
-        <v>6308.125</v>
+        <v>6425</v>
       </c>
       <c r="O25" s="5">
         <f t="shared" si="4"/>
-        <v>119854.375</v>
+        <v>122075</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
@@ -1778,19 +1779,19 @@
       </c>
       <c r="L26" s="5">
         <f t="shared" si="1"/>
-        <v>2395</v>
+        <v>4100</v>
       </c>
       <c r="M26" s="5">
         <f t="shared" si="2"/>
-        <v>92295</v>
+        <v>94000</v>
       </c>
       <c r="N26" s="5">
         <f t="shared" si="3"/>
-        <v>4614.75</v>
+        <v>4700</v>
       </c>
       <c r="O26" s="5">
         <f t="shared" si="4"/>
-        <v>87680.25</v>
+        <v>89300</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
@@ -1827,19 +1828,19 @@
       </c>
       <c r="L27" s="5">
         <f t="shared" si="1"/>
-        <v>1337.5</v>
+        <v>1750</v>
       </c>
       <c r="M27" s="5">
         <f t="shared" si="2"/>
-        <v>23087.5</v>
+        <v>23500</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="3"/>
-        <v>1154.375</v>
+        <v>1175</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" si="4"/>
-        <v>21933.125</v>
+        <v>22325</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
@@ -1876,19 +1877,19 @@
       </c>
       <c r="L28" s="5">
         <f t="shared" si="1"/>
-        <v>2822.5</v>
+        <v>5050</v>
       </c>
       <c r="M28" s="5">
         <f t="shared" si="2"/>
-        <v>120272.5</v>
+        <v>122500</v>
       </c>
       <c r="N28" s="5">
         <f t="shared" si="3"/>
-        <v>6013.625</v>
+        <v>6125</v>
       </c>
       <c r="O28" s="5">
         <f t="shared" si="4"/>
-        <v>114258.875</v>
+        <v>116375</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
@@ -1925,19 +1926,19 @@
       </c>
       <c r="L29" s="5">
         <f t="shared" si="1"/>
-        <v>1427.5</v>
+        <v>1950</v>
       </c>
       <c r="M29" s="5">
         <f t="shared" si="2"/>
-        <v>28977.5</v>
+        <v>29500</v>
       </c>
       <c r="N29" s="5">
         <f t="shared" si="3"/>
-        <v>1448.875</v>
+        <v>1475</v>
       </c>
       <c r="O29" s="5">
         <f t="shared" si="4"/>
-        <v>27528.625</v>
+        <v>28025</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
@@ -1974,19 +1975,19 @@
       </c>
       <c r="L30" s="5">
         <f t="shared" si="1"/>
-        <v>2687.5</v>
+        <v>4750</v>
       </c>
       <c r="M30" s="5">
         <f t="shared" si="2"/>
-        <v>111437.5</v>
+        <v>113500</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="3"/>
-        <v>5571.875</v>
+        <v>5675</v>
       </c>
       <c r="O30" s="5">
         <f t="shared" si="4"/>
-        <v>105865.625</v>
+        <v>107825</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
@@ -2023,19 +2024,19 @@
       </c>
       <c r="L31" s="5">
         <f t="shared" si="1"/>
-        <v>2102.5</v>
+        <v>3450</v>
       </c>
       <c r="M31" s="5">
         <f t="shared" si="2"/>
-        <v>73152.5</v>
+        <v>74500</v>
       </c>
       <c r="N31" s="5">
         <f t="shared" si="3"/>
-        <v>3657.625</v>
+        <v>3725</v>
       </c>
       <c r="O31" s="5">
         <f t="shared" si="4"/>
-        <v>69494.875</v>
+        <v>70775</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
@@ -2072,19 +2073,19 @@
       </c>
       <c r="L32" s="5">
         <f t="shared" si="1"/>
-        <v>2125</v>
+        <v>3500</v>
       </c>
       <c r="M32" s="5">
         <f t="shared" si="2"/>
-        <v>74625</v>
+        <v>76000</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="3"/>
-        <v>3731.25</v>
+        <v>3800</v>
       </c>
       <c r="O32" s="5">
         <f t="shared" si="4"/>
-        <v>70893.75</v>
+        <v>72200</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
@@ -2121,19 +2122,19 @@
       </c>
       <c r="L33" s="5">
         <f t="shared" si="1"/>
-        <v>2867.5</v>
+        <v>5150</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="2"/>
-        <v>123217.5</v>
+        <v>125500</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="3"/>
-        <v>6160.875</v>
+        <v>6275</v>
       </c>
       <c r="O33" s="5">
         <f t="shared" si="4"/>
-        <v>117056.625</v>
+        <v>119225</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
@@ -2170,19 +2171,19 @@
       </c>
       <c r="L34" s="5">
         <f t="shared" si="1"/>
-        <v>2192.5</v>
+        <v>3650</v>
       </c>
       <c r="M34" s="5">
         <f t="shared" si="2"/>
-        <v>79042.5</v>
+        <v>80500</v>
       </c>
       <c r="N34" s="5">
         <f t="shared" si="3"/>
-        <v>3952.125</v>
+        <v>4025</v>
       </c>
       <c r="O34" s="5">
         <f t="shared" si="4"/>
-        <v>75090.375</v>
+        <v>76475</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
@@ -2219,19 +2220,19 @@
       </c>
       <c r="L35" s="5">
         <f t="shared" si="1"/>
-        <v>2462.5</v>
+        <v>4250</v>
       </c>
       <c r="M35" s="5">
         <f t="shared" si="2"/>
-        <v>96712.5</v>
+        <v>98500</v>
       </c>
       <c r="N35" s="5">
         <f t="shared" si="3"/>
-        <v>4835.625</v>
+        <v>4925</v>
       </c>
       <c r="O35" s="5">
         <f t="shared" si="4"/>
-        <v>91876.875</v>
+        <v>93575</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
@@ -2268,19 +2269,19 @@
       </c>
       <c r="L36" s="5">
         <f t="shared" si="1"/>
-        <v>2912.5</v>
+        <v>5250</v>
       </c>
       <c r="M36" s="5">
         <f t="shared" si="2"/>
-        <v>126162.5</v>
+        <v>128500</v>
       </c>
       <c r="N36" s="5">
         <f t="shared" si="3"/>
-        <v>6308.125</v>
+        <v>6425</v>
       </c>
       <c r="O36" s="5">
         <f t="shared" si="4"/>
-        <v>119854.375</v>
+        <v>122075</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
@@ -2317,19 +2318,19 @@
       </c>
       <c r="L37" s="5">
         <f t="shared" si="1"/>
-        <v>1450</v>
+        <v>2000</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" si="2"/>
-        <v>30450</v>
+        <v>31000</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="3"/>
-        <v>1522.5</v>
+        <v>1550</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" si="4"/>
-        <v>28927.5</v>
+        <v>29450</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
@@ -2366,19 +2367,19 @@
       </c>
       <c r="L38" s="5">
         <f t="shared" si="1"/>
-        <v>2057.5</v>
+        <v>3350</v>
       </c>
       <c r="M38" s="5">
         <f t="shared" si="2"/>
-        <v>70207.5</v>
+        <v>71500</v>
       </c>
       <c r="N38" s="5">
         <f t="shared" si="3"/>
-        <v>3510.375</v>
+        <v>3575</v>
       </c>
       <c r="O38" s="5">
         <f t="shared" si="4"/>
-        <v>66697.125</v>
+        <v>67925</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
@@ -2415,19 +2416,19 @@
       </c>
       <c r="L39" s="5">
         <f t="shared" si="1"/>
-        <v>2957.5</v>
+        <v>5350</v>
       </c>
       <c r="M39" s="5">
         <f t="shared" si="2"/>
-        <v>129107.5</v>
+        <v>131500</v>
       </c>
       <c r="N39" s="5">
         <f t="shared" si="3"/>
-        <v>6455.375</v>
+        <v>6575</v>
       </c>
       <c r="O39" s="5">
         <f t="shared" si="4"/>
-        <v>122652.125</v>
+        <v>124925</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
@@ -2464,19 +2465,19 @@
       </c>
       <c r="L40" s="5">
         <f t="shared" si="1"/>
-        <v>2282.5</v>
+        <v>3850</v>
       </c>
       <c r="M40" s="5">
         <f t="shared" si="2"/>
-        <v>84932.5</v>
+        <v>86500</v>
       </c>
       <c r="N40" s="5">
         <f t="shared" si="3"/>
-        <v>4246.625</v>
+        <v>4325</v>
       </c>
       <c r="O40" s="5">
         <f t="shared" si="4"/>
-        <v>80685.875</v>
+        <v>82175</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
@@ -2513,19 +2514,19 @@
       </c>
       <c r="L41" s="5">
         <f t="shared" si="1"/>
-        <v>1607.5</v>
+        <v>2350</v>
       </c>
       <c r="M41" s="5">
         <f t="shared" si="2"/>
-        <v>40757.5</v>
+        <v>41500</v>
       </c>
       <c r="N41" s="5">
         <f t="shared" si="3"/>
-        <v>2037.875</v>
+        <v>2075</v>
       </c>
       <c r="O41" s="5">
         <f t="shared" si="4"/>
-        <v>38719.625</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
@@ -2562,19 +2563,19 @@
       </c>
       <c r="L42" s="5">
         <f t="shared" si="1"/>
-        <v>2822.5</v>
+        <v>5050</v>
       </c>
       <c r="M42" s="5">
         <f t="shared" si="2"/>
-        <v>120272.5</v>
+        <v>122500</v>
       </c>
       <c r="N42" s="5">
         <f t="shared" si="3"/>
-        <v>6013.625</v>
+        <v>6125</v>
       </c>
       <c r="O42" s="5">
         <f t="shared" si="4"/>
-        <v>114258.875</v>
+        <v>116375</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
@@ -2611,19 +2612,19 @@
       </c>
       <c r="L43" s="5">
         <f t="shared" si="1"/>
-        <v>2170</v>
+        <v>3600</v>
       </c>
       <c r="M43" s="5">
         <f t="shared" si="2"/>
-        <v>77570</v>
+        <v>79000</v>
       </c>
       <c r="N43" s="5">
         <f t="shared" si="3"/>
-        <v>3878.5</v>
+        <v>3950</v>
       </c>
       <c r="O43" s="5">
         <f t="shared" si="4"/>
-        <v>73691.5</v>
+        <v>75050</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
@@ -2660,19 +2661,19 @@
       </c>
       <c r="L44" s="5">
         <f t="shared" si="1"/>
-        <v>2305</v>
+        <v>3900</v>
       </c>
       <c r="M44" s="5">
         <f t="shared" si="2"/>
-        <v>86405</v>
+        <v>88000</v>
       </c>
       <c r="N44" s="5">
         <f t="shared" si="3"/>
-        <v>4320.25</v>
+        <v>4400</v>
       </c>
       <c r="O44" s="5">
         <f t="shared" si="4"/>
-        <v>82084.75</v>
+        <v>83600</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
@@ -2709,19 +2710,19 @@
       </c>
       <c r="L45" s="5">
         <f t="shared" si="1"/>
-        <v>2057.5</v>
+        <v>3350</v>
       </c>
       <c r="M45" s="5">
         <f t="shared" si="2"/>
-        <v>70207.5</v>
+        <v>71500</v>
       </c>
       <c r="N45" s="5">
         <f t="shared" si="3"/>
-        <v>3510.375</v>
+        <v>3575</v>
       </c>
       <c r="O45" s="5">
         <f t="shared" si="4"/>
-        <v>66697.125</v>
+        <v>67925</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
@@ -2758,19 +2759,19 @@
       </c>
       <c r="L46" s="5">
         <f t="shared" si="1"/>
-        <v>1585</v>
+        <v>2300</v>
       </c>
       <c r="M46" s="5">
         <f t="shared" si="2"/>
-        <v>39285</v>
+        <v>40000</v>
       </c>
       <c r="N46" s="5">
         <f t="shared" si="3"/>
-        <v>1964.25</v>
+        <v>2000</v>
       </c>
       <c r="O46" s="5">
         <f t="shared" si="4"/>
-        <v>37320.75</v>
+        <v>38000</v>
       </c>
     </row>
   </sheetData>
@@ -2779,11 +2780,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3218,16 +3219,16 @@
       <c r="M16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3263,12 +3264,12 @@
         <v>38</v>
       </c>
       <c r="N17" s="5">
-        <f>COUNTIFS($H$7:$H$44,$M17,$I$7:$I$44,N$16)</f>
-        <v>1</v>
+        <f>SUMIFS($J$7:$J$44,$H$7:$H$44,$M17,$I$7:$I$44,N$16)</f>
+        <v>48000</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" ref="O17:Q27" si="0">COUNTIFS($H$7:$H$44,$M17,$I$7:$I$44,O$16)</f>
-        <v>1</v>
+        <f t="shared" ref="O17:Q27" si="0">SUMIFS($J$7:$J$44,$H$7:$H$44,$M17,$I$7:$I$44,O$16)</f>
+        <v>62000</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" si="0"/>
@@ -3311,20 +3312,20 @@
         <v>20</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" ref="N18:N27" si="1">COUNTIFS($H$7:$H$44,$M18,$I$7:$I$44,N$16)</f>
-        <v>3</v>
+        <f t="shared" ref="N18:N27" si="1">SUMIFS($J$7:$J$44,$H$7:$H$44,$M18,$I$7:$I$44,N$16)</f>
+        <v>183000</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>82000</v>
       </c>
       <c r="P18" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>92000</v>
       </c>
       <c r="Q18" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
@@ -3360,19 +3361,19 @@
       </c>
       <c r="N19" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>154000</v>
       </c>
       <c r="P19" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>95000</v>
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
@@ -3408,19 +3409,19 @@
       </c>
       <c r="N20" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>22000</v>
       </c>
       <c r="O20" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>58000</v>
       </c>
       <c r="P20" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>27000</v>
       </c>
       <c r="Q20" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
@@ -3456,11 +3457,11 @@
       </c>
       <c r="N21" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>91000</v>
       </c>
       <c r="O21" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>87000</v>
       </c>
       <c r="P21" s="5">
         <f t="shared" si="0"/>
@@ -3508,15 +3509,15 @@
       </c>
       <c r="O22" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>37000</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>43000</v>
       </c>
       <c r="Q22" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
@@ -3560,7 +3561,7 @@
       </c>
       <c r="P23" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>90000</v>
       </c>
       <c r="Q23" s="5">
         <f t="shared" si="0"/>
@@ -3600,15 +3601,15 @@
       </c>
       <c r="N24" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>26000</v>
       </c>
       <c r="O24" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>135000</v>
       </c>
       <c r="P24" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>81000</v>
       </c>
       <c r="Q24" s="5">
         <f t="shared" si="0"/>
@@ -3652,7 +3653,7 @@
       </c>
       <c r="O25" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>146000</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="0"/>
@@ -3696,19 +3697,19 @@
       </c>
       <c r="N26" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>85000</v>
       </c>
       <c r="O26" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19000</v>
       </c>
       <c r="P26" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>49000</v>
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
@@ -3744,11 +3745,11 @@
       </c>
       <c r="N27" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>52000</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>110000</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" si="0"/>
@@ -4253,7 +4254,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B7:J44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:J44">
     <sortCondition ref="D7:D44"/>
   </sortState>
   <mergeCells count="3">
